--- a/BoxPlot.xlsx
+++ b/BoxPlot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sam\Duke\Junior Year\Independent Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104DD3D2-ADB6-40A7-A6D8-CA113E9D50DC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4DAEF9-2591-4ADE-A4D5-1EADD3C2D134}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8030" windowHeight="2690" tabRatio="500" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8030" windowHeight="2690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dispatchers" sheetId="6" r:id="rId1"/>
@@ -27,34 +27,34 @@
     <sheet name="Exogenous Events" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Fleet Size'!$D$14:$F$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Fleet Size'!$D$23:$F$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Fleet Size'!$D$26:$F$26</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Fleet Size'!$D$8:$F$8</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Fleet Size'!$D$16:$F$16</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Fleet Size'!$D$25:$F$25</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Fleet Size'!$D$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Fleet Size'!$D$18:$F$18</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Fleet Size'!$D$27:$F$27</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Fleet Size'!$D$9:$F$9</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Fleet Size'!$D$10:$F$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Fleet Size'!$D$19:$F$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Fleet Size'!$D$5:$F$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Fleet Size'!$D$28:$F$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Fleet Size'!$D$13:$F$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Fleet Size'!$D$22:$F$22</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Fleet Size'!$D$4:$F$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Fleet Size'!$D$15:$F$15</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Fleet Size'!$D$24:$F$24</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Fleet Size'!$D$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Fleet Size'!$D$17:$F$17</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Fleet Size'!$D$13:$F$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Fleet Size'!$D$22:$F$22</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Fleet Size'!$D$27:$F$27</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Fleet Size'!$D$9:$F$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Fleet Size'!$D$10:$F$10</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Fleet Size'!$D$19:$F$19</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Fleet Size'!$D$28:$F$28</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Fleet Size'!$D$16:$F$16</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Fleet Size'!$D$25:$F$25</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Fleet Size'!$D$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Fleet Size'!$D$15:$F$15</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Fleet Size'!$D$24:$F$24</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Fleet Size'!$D$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Fleet Size'!$D$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Fleet Size'!$D$14:$F$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Fleet Size'!$D$23:$F$23</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Fleet Size'!$D$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Fleet Size'!$D$17:$F$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Fleet Size'!$D$26:$F$26</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Fleet Size'!$D$8:$F$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Fleet Size'!$D$18:$F$18</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="110">
   <si>
     <t>Half Width</t>
   </si>
@@ -397,13 +397,13 @@
     <t>11 Dispatchers (including 1 AI)</t>
   </si>
   <si>
-    <t>*NEED TO REDO</t>
-  </si>
-  <si>
     <t>50x arrival parameter</t>
   </si>
   <si>
     <t>COMM</t>
+  </si>
+  <si>
+    <t>*REDO</t>
   </si>
 </sst>
 </file>
@@ -1574,17 +1574,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1678,17 +1678,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.0</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.1</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1774,17 +1774,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1870,17 +1870,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.14</cx:f>
+        <cx:f dir="row">_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.12</cx:f>
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1966,17 +1966,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.10</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2062,17 +2062,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.17</cx:f>
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.16</cx:f>
+        <cx:f dir="row">_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2158,17 +2158,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.18</cx:f>
+        <cx:f dir="row">_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.19</cx:f>
+        <cx:f dir="row">_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.20</cx:f>
+        <cx:f dir="row">_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7250,23 +7250,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>153987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AEBBC5-1FA5-4BBF-AF9A-205FB5D91ED1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE38328-3F8F-4DC7-AD44-12AFA4907D82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7288,8 +7288,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12084050" y="5219700"/>
-          <a:ext cx="3981450" cy="2986088"/>
+          <a:off x="7823200" y="4141787"/>
+          <a:ext cx="5238750" cy="3929063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7300,23 +7300,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>601132</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>279399</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B03260-F01C-4E11-B0CC-DE056379698E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7F8B39-EC75-43CC-BF9F-AACF4AE2E81A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7338,108 +7338,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15841132" y="5162550"/>
-          <a:ext cx="3945467" cy="2959100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>80433</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10108F49-A1BD-4E92-9FC2-08091B368695}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19587633" y="5181600"/>
-          <a:ext cx="3920067" cy="2940050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>188382</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>518582</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EFE67B-864B-41B6-953B-5197910C1B6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23353182" y="5130800"/>
-          <a:ext cx="3987800" cy="2990850"/>
+          <a:off x="7797800" y="152399"/>
+          <a:ext cx="5302250" cy="3976688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8463,8 +8363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9341,7 +9241,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:P17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9559,7 +9459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05B4CB2-9197-4303-A2EA-BD915718BB3B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -10286,8 +10186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC33DB3-D490-49CD-A987-0B684AEAFB69}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11311,7 +11211,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12764,8 +12664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BF2912-2281-4F66-AD0A-E0C63DFF5A58}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13531,15 +13431,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA23CE26-5FEF-4F88-850C-21FBEA6AC40C}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
         <v>79</v>
@@ -13659,7 +13562,7 @@
         <v>0.06</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>0.52</v>
@@ -13804,7 +13707,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.25">
@@ -14072,7 +13975,7 @@
         <v>85</v>
       </c>
       <c r="L23">
-        <v>0.1376</v>
+        <v>0.20760000000000001</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -14104,10 +14007,10 @@
         <v>86</v>
       </c>
       <c r="L24">
-        <v>3.0931989999999999E-2</v>
+        <v>0.183</v>
       </c>
       <c r="M24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -14133,7 +14036,7 @@
         <v>100</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.0210000000000001E-5</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -14240,6 +14143,9 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="B31">
         <v>42.7</v>
       </c>
@@ -14251,6 +14157,9 @@
       </c>
       <c r="E31">
         <v>2.02</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/BoxPlot.xlsx
+++ b/BoxPlot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sam\Duke\Junior Year\Independent Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4C09C7-B7C8-4727-98D4-354AE2F10E65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D348534-3B08-4B7C-AFF2-F817C104C2E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8030" windowHeight="2140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8030" windowHeight="2140" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dispatchers" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="110">
   <si>
     <t>Half Width</t>
   </si>
@@ -335,6 +335,33 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Workload Summary</t>
+  </si>
+  <si>
+    <t>Percentage of utilization 0-30%</t>
+  </si>
+  <si>
+    <t>Percentage of utilization 30-70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of utilization 70-100% </t>
+  </si>
+  <si>
+    <t>2 dispatcher</t>
+  </si>
+  <si>
+    <t>3 dispatcher</t>
+  </si>
+  <si>
+    <t>4 dispatcher</t>
+  </si>
+  <si>
+    <t>Java Results</t>
   </si>
 </sst>
 </file>
@@ -403,7 +430,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -437,6 +464,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1691,16 +1720,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99483</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>531283</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1729,7 +1758,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3147483" y="69850"/>
+          <a:off x="4188883" y="127000"/>
           <a:ext cx="4326467" cy="3244850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2320,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2955,6 +2984,107 @@
         <v>3.5844500000000001E-2</v>
       </c>
       <c r="E29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="B35" s="12">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>0.98124999999999996</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>0.98666666666666603</v>
+      </c>
+      <c r="B40" s="12">
+        <v>1.3333333333333299E-2</v>
+      </c>
+      <c r="C40" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4147,10 +4277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC33DB3-D490-49CD-A987-0B684AEAFB69}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4622,6 +4752,98 @@
       </c>
       <c r="E29" s="7">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>0.99833333333333296</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1.6666666666666601E-3</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>0.99124999999999996</v>
+      </c>
+      <c r="B37" s="12">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="B40" s="12">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4633,15 +4855,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
@@ -4652,7 +4874,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -4661,7 +4883,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -4676,7 +4898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>120</v>
       </c>
@@ -4691,7 +4913,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>240</v>
       </c>
@@ -4706,7 +4928,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>360</v>
       </c>
@@ -4721,7 +4943,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>480</v>
       </c>
@@ -4736,8 +4958,136 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="F9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>0.99916666666666598</v>
+      </c>
+      <c r="B14" s="12">
+        <v>8.3333333333333295E-4</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>0.99944444444444402</v>
+      </c>
+      <c r="B17" s="12">
+        <v>5.5555555555555501E-4</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>0.99958333333333305</v>
+      </c>
+      <c r="B20" s="12">
+        <v>4.1666666666666599E-4</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5522,8 +5872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36A568C-11A6-420D-9B79-74A3A98C7B7E}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
